--- a/Hardware/RS232/BOM_JLCSMT.xlsx
+++ b/Hardware/RS232/BOM_JLCSMT.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -164,6 +164,18 @@
   </si>
   <si>
     <t xml:space="preserve">C65114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Amphenol ICC LD09P13A4GX00LF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RS232</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D-Sub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3103673 </t>
   </si>
 </sst>
 </file>
@@ -376,6 +388,112 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
@@ -384,12 +502,12 @@
   <dimension ref="A1:VW16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="29.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="34.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="15.62"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="2" width="40.06"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="2" width="26.99"/>
@@ -4644,7 +4762,20 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="12" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="13" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Hardware/RS232/BOM_JLCSMT.xlsx
+++ b/Hardware/RS232/BOM_JLCSMT.xlsx
@@ -97,16 +97,16 @@
     <t xml:space="preserve">C2286</t>
   </si>
   <si>
-    <t xml:space="preserve">PINHD-1X4/90</t>
+    <t xml:space="preserve">B6B-XH-A(LF)(SN)</t>
   </si>
   <si>
     <t xml:space="preserve">TTL</t>
   </si>
   <si>
-    <t xml:space="preserve">1X04/90</t>
+    <t xml:space="preserve">Plugin,P=2.5mm</t>
   </si>
   <si>
-    <t xml:space="preserve">C492412</t>
+    <t xml:space="preserve">C144397</t>
   </si>
   <si>
     <t xml:space="preserve">GREEN</t>
@@ -502,7 +502,7 @@
   <dimension ref="A1:VW16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Hardware/RS232/BOM_JLCSMT.xlsx
+++ b/Hardware/RS232/BOM_JLCSMT.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t xml:space="preserve">Comment</t>
   </si>
@@ -97,25 +97,22 @@
     <t xml:space="preserve">C2286</t>
   </si>
   <si>
-    <t xml:space="preserve">B6B-XH-A(LF)(SN)</t>
+    <t xml:space="preserve">B6B-PH-K-S(LF)(SN)</t>
   </si>
   <si>
     <t xml:space="preserve">TTL</t>
   </si>
   <si>
-    <t xml:space="preserve">Plugin,P=2.5mm</t>
+    <t xml:space="preserve">Through Hole,P=2mm</t>
   </si>
   <si>
-    <t xml:space="preserve">C144397</t>
+    <t xml:space="preserve">C131342</t>
   </si>
   <si>
     <t xml:space="preserve">GREEN</t>
   </si>
   <si>
     <t xml:space="preserve">TXD</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C72043</t>
   </si>
   <si>
     <t xml:space="preserve">1k</t>
@@ -175,7 +172,7 @@
     <t xml:space="preserve">D-Sub </t>
   </si>
   <si>
-    <t xml:space="preserve">C3103673 </t>
+    <t xml:space="preserve">C3118153</t>
   </si>
 </sst>
 </file>
@@ -502,7 +499,7 @@
   <dimension ref="A1:VW16"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D4" activeCellId="0" sqref="D4"/>
+      <selection pane="topLeft" activeCell="D5" activeCellId="0" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8828125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2347,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -2941,16 +2938,16 @@
     </row>
     <row r="6" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="C6" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="D6" s="5" t="s">
         <v>21</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>22</v>
       </c>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -3544,16 +3541,16 @@
     </row>
     <row r="7" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A7" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="C7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="D7" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>26</v>
       </c>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -4147,16 +4144,16 @@
     </row>
     <row r="8" s="6" customFormat="true" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C8" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="D8" s="5" t="s">
         <v>29</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>30</v>
       </c>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -4750,30 +4747,30 @@
     </row>
     <row r="9" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A9" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="D9" s="5" t="s">
         <v>33</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A10" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C10" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="D10" s="5" t="s">
         <v>37</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="20" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
